--- a/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.6951419920120101</v>
+        <v>0.6951419920120102</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7083103767558998</v>
+        <v>0.7083103767558997</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7016752532492156</v>
+        <v>0.7016752532492155</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.578802817984536</v>
+        <v>0.5665794400423443</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6122322425717762</v>
+        <v>0.6166550534970692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6292768877529399</v>
+        <v>0.6238933190802111</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7916451525833644</v>
+        <v>0.7879231485961382</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7883740286519607</v>
+        <v>0.8032710616978997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7709343698755989</v>
+        <v>0.7656361297539273</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.7648933660676429</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7233417702651235</v>
+        <v>0.7233417702651234</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5922210323999654</v>
+        <v>0.585554671509495</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7061308253186965</v>
+        <v>0.700282042419977</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.658439895107182</v>
+        <v>0.6648921533118276</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.765244459324205</v>
+        <v>0.7629086155162652</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8210765345060658</v>
+        <v>0.8206809887333102</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7684735498745842</v>
+        <v>0.7684924724765808</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7178210240879875</v>
+        <v>0.7178210240879876</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.714876718956983</v>
+        <v>0.7148767189569829</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7164512988174186</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6571133613817308</v>
+        <v>0.6600841141244256</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6713847035276731</v>
+        <v>0.666636771397822</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6802164331254991</v>
+        <v>0.6793432843062803</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7649451242751186</v>
+        <v>0.7611648225437915</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7589740112114441</v>
+        <v>0.7534630539159143</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7514781163457687</v>
+        <v>0.747996746662649</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.7400965200412885</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7638826728285667</v>
+        <v>0.7638826728285669</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7520353670918158</v>
+        <v>0.752035367091816</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6896637726644681</v>
+        <v>0.6926510061072688</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7251156624338397</v>
+        <v>0.7240863830101688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.720619560143435</v>
+        <v>0.7229918280726506</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7844542187066998</v>
+        <v>0.7877974463187035</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7952608799176294</v>
+        <v>0.7960066643075434</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7811483790264392</v>
+        <v>0.782698456594471</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.786974622169099</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7532081401933823</v>
+        <v>0.7532081401933822</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7702690315200584</v>
+        <v>0.7702690315200587</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7416551137747366</v>
+        <v>0.7413316410028405</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7180051797098822</v>
+        <v>0.7159819424962754</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7410190773854599</v>
+        <v>0.7394025837923318</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8278620792886487</v>
+        <v>0.8271975502338264</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7909856441693699</v>
+        <v>0.7902912422427998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7977123590432079</v>
+        <v>0.7978339818797319</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7659857472475275</v>
+        <v>0.7659857472475277</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8152317342083668</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7137758357453021</v>
+        <v>0.7142401191239847</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7798626375837869</v>
+        <v>0.7761689129195029</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7612626713611497</v>
+        <v>0.7609370309427412</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8136013717940014</v>
+        <v>0.8111237469906354</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8485629645829064</v>
+        <v>0.8512357171598671</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.820003642378088</v>
+        <v>0.820924859702433</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.7755189692517923</v>
+        <v>0.7755189692517925</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.859140045855284</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.8265267246953711</v>
+        <v>0.826526724695371</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7153850014895202</v>
+        <v>0.722933718396621</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8225389509767498</v>
+        <v>0.823110738630743</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7986917416181621</v>
+        <v>0.797568129858063</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8233368732630461</v>
+        <v>0.8277493975979894</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8870543976105789</v>
+        <v>0.8875217445318492</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8543429515525452</v>
+        <v>0.8526723536871945</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.7391308074158979</v>
+        <v>0.7391308074158978</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.7682080722432895</v>
+        <v>0.7682080722432894</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.7538896770469371</v>
+        <v>0.7538896770469369</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7147792447107179</v>
+        <v>0.7157166909780817</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.7509931608611562</v>
+        <v>0.7504559014991976</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7363759363893422</v>
+        <v>0.7378571229659471</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7620364477471089</v>
+        <v>0.7623161385811974</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.7855810734562493</v>
+        <v>0.7865822933946219</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7664979302874482</v>
+        <v>0.767269711306067</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>106510</v>
+        <v>104261</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>110932</v>
+        <v>111734</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>229819</v>
+        <v>227853</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>145677</v>
+        <v>144992</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>142848</v>
+        <v>145547</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>281554</v>
+        <v>279620</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>128014</v>
+        <v>126573</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>158042</v>
+        <v>156733</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>289696</v>
+        <v>292535</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>165414</v>
+        <v>164910</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>183768</v>
+        <v>183680</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>338108</v>
+        <v>338116</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>222022</v>
+        <v>223026</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>197331</v>
+        <v>195936</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>429755</v>
+        <v>429203</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>258456</v>
+        <v>257179</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>223075</v>
+        <v>221456</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>474777</v>
+        <v>472578</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>242275</v>
+        <v>243324</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>256697</v>
+        <v>256332</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>508254</v>
+        <v>509928</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>275574</v>
+        <v>276749</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>281529</v>
+        <v>281793</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>550946</v>
+        <v>552039</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>247106</v>
+        <v>246998</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>234244</v>
+        <v>233584</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>488647</v>
+        <v>487581</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>275829</v>
+        <v>275607</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>258054</v>
+        <v>257827</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>526031</v>
+        <v>526112</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>153267</v>
+        <v>153367</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>172418</v>
+        <v>171602</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>331770</v>
+        <v>331628</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>174702</v>
+        <v>174170</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>187607</v>
+        <v>188198</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>357370</v>
+        <v>357771</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>117194</v>
+        <v>118431</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>210749</v>
+        <v>210896</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>335481</v>
+        <v>335009</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>134879</v>
+        <v>135602</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>227279</v>
+        <v>227399</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>358857</v>
+        <v>358155</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1287371</v>
+        <v>1289059</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1394205</v>
+        <v>1393207</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2693335</v>
+        <v>2698753</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1372485</v>
+        <v>1372989</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1458416</v>
+        <v>1460275</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2803508</v>
+        <v>2806331</v>
       </c>
     </row>
     <row r="36">
